--- a/data/Behavioral/description/BIA.xlsx
+++ b/data/Behavioral/description/BIA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/all_data_dicts_09142017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/all_data_dicts_Jan_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>Question</t>
   </si>
@@ -56,12 +56,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Frame</t>
-  </si>
-  <si>
-    <t>Activity_Level</t>
-  </si>
-  <si>
     <t>Height</t>
   </si>
   <si>
@@ -116,52 +110,64 @@
     <t>Daily Energy Expenditure</t>
   </si>
   <si>
-    <t>Fat</t>
-  </si>
-  <si>
-    <t>LDM</t>
-  </si>
-  <si>
-    <t>ICW</t>
-  </si>
-  <si>
-    <t>BMI</t>
-  </si>
-  <si>
-    <t>ECW</t>
-  </si>
-  <si>
-    <t>FFM</t>
-  </si>
-  <si>
-    <t>TBW</t>
-  </si>
-  <si>
-    <t>SMM</t>
-  </si>
-  <si>
-    <t>FMI</t>
-  </si>
-  <si>
-    <t>FFMI</t>
-  </si>
-  <si>
-    <t>BMC</t>
-  </si>
-  <si>
-    <t>LST</t>
-  </si>
-  <si>
-    <t>BMR</t>
-  </si>
-  <si>
-    <t>DEE</t>
-  </si>
-  <si>
     <t>Numeric</t>
   </si>
   <si>
     <t>Text</t>
+  </si>
+  <si>
+    <t>BIA_Frame</t>
+  </si>
+  <si>
+    <t>BIA_Activity_Level</t>
+  </si>
+  <si>
+    <t>BIA_Height</t>
+  </si>
+  <si>
+    <t>BIA_Weight</t>
+  </si>
+  <si>
+    <t>BIA_Fat</t>
+  </si>
+  <si>
+    <t>BIA_LDM</t>
+  </si>
+  <si>
+    <t>BIA_ICW</t>
+  </si>
+  <si>
+    <t>BIA_BMI</t>
+  </si>
+  <si>
+    <t>BIA_ECW</t>
+  </si>
+  <si>
+    <t>BIA_FFM</t>
+  </si>
+  <si>
+    <t>BIA_TBW</t>
+  </si>
+  <si>
+    <t>BIA_SMM</t>
+  </si>
+  <si>
+    <t>BIA_FMI</t>
+  </si>
+  <si>
+    <t>BIA_FFMI</t>
+  </si>
+  <si>
+    <t>BIA_BMC</t>
+  </si>
+  <si>
+    <t>BIA_LST</t>
+  </si>
+  <si>
+    <t>BIA_BMR</t>
+  </si>
+  <si>
+    <t>BIA_DEE</t>
   </si>
 </sst>
 </file>
@@ -647,7 +653,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -686,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7"/>
@@ -699,57 +705,57 @@
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -761,156 +767,156 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
